--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO5.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\cad\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4255687-6589-48BD-9A4E-0411E1FF73C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F542173-3F40-4C80-BCFF-E9F228AB5DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16485" yWindow="2130" windowWidth="26700" windowHeight="15495" tabRatio="676" activeTab="1" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="37635" windowHeight="13425" tabRatio="676" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="&lt;zlight&gt;DEVEXPORT" sheetId="2" r:id="rId13"/>
     <sheet name="&lt;zlight&gt;CABEXPORT" sheetId="5" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="2"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -853,7 +853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="400">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -1701,9 +1701,6 @@
     <t>SLCABAGEN1_NGControlUnit</t>
   </si>
   <si>
-    <t>&lt;zcopyrow targetsheet="&lt;zlight&gt;DEVEXPORT" targetcodename="zimportdev" keynumcol="19"&gt;</t>
-  </si>
-  <si>
     <t>ВАЖНО! Определение я узел управления</t>
   </si>
   <si>
@@ -2056,6 +2053,15 @@
   </si>
   <si>
     <t>&lt;zall&gt;DEV</t>
+  </si>
+  <si>
+    <t>&lt;zalldevimport&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/zalldevimport&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet="&lt;zlight&gt;DEVEXPORT" targetcodename="zimportdev" keynumcol="18"&gt;</t>
   </si>
 </sst>
 </file>
@@ -3518,8 +3524,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3529,6 +3599,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3584,73 +3657,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4963,7 +4969,7 @@
         <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5229,10 +5235,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
   <sheetPr codeName="Лист13"/>
-  <dimension ref="C1:ES24"/>
+  <dimension ref="C1:ET24"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8:U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5295,7 +5301,7 @@
     </row>
     <row r="2" spans="4:45" x14ac:dyDescent="0.25">
       <c r="AD2" s="109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AE2" s="110"/>
     </row>
@@ -5304,201 +5310,201 @@
         <v>1234</v>
       </c>
       <c r="AE3" s="112" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="149" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="84" t="s">
+      <c r="O4" s="84"/>
+      <c r="P4" s="149" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="168" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
       <c r="AD4" s="113">
         <v>1234</v>
       </c>
       <c r="AE4" s="112" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D5" s="162" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
+      <c r="D5" s="141" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="78" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
       </c>
       <c r="I5" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="O5" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="O5" s="82" t="s">
+      <c r="P5" s="150" t="s">
         <v>286</v>
       </c>
-      <c r="P5" s="163" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163" t="e">
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150" t="e">
         <f ca="1">SUM($AC$24:$AC$12000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="163"/>
+      <c r="U5" s="150"/>
       <c r="AD5" s="114">
         <v>1234</v>
       </c>
       <c r="AE5" s="112" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="79" t="s">
+      <c r="I6" s="82" t="s">
         <v>289</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>290</v>
       </c>
       <c r="O6" s="82">
         <v>63</v>
       </c>
-      <c r="P6" s="163" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163" t="e">
+      <c r="P6" s="150" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150" t="e">
         <f ca="1">T5*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="163"/>
+      <c r="U6" s="150"/>
       <c r="AD6" s="115">
         <v>380</v>
       </c>
       <c r="AE6" s="112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D7" s="162" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
+      <c r="D7" s="141" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="79">
         <v>45399</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O7" s="82">
         <v>32</v>
       </c>
-      <c r="P7" s="163" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163" t="e">
+      <c r="P7" s="150" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150" t="e">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U7" s="163"/>
+      <c r="U7" s="150"/>
       <c r="AD7" s="116">
         <v>123.4</v>
       </c>
       <c r="AE7" s="112" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="4:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="162" t="s">
+      <c r="D8" s="141" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="79" t="s">
+      <c r="I8" s="82" t="s">
         <v>296</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>297</v>
       </c>
       <c r="O8" s="82">
         <v>6</v>
       </c>
-      <c r="P8" s="165" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="164">
+      <c r="P8" s="151" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="145">
         <v>0.92</v>
       </c>
-      <c r="U8" s="164"/>
+      <c r="U8" s="145"/>
       <c r="AD8" s="120">
         <v>123</v>
       </c>
       <c r="AE8" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="141" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="79" t="s">
         <v>299</v>
       </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="79" t="s">
+      <c r="I9" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="O9" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="O9" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="P9" s="169" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="169"/>
-      <c r="S9" s="169"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
+      <c r="P9" s="144" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
       <c r="AD9" s="119">
         <v>123</v>
       </c>
       <c r="AE9" s="112" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AR9">
         <f>30/4</f>
@@ -5506,29 +5512,29 @@
       </c>
     </row>
     <row r="10" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="141" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="I10" s="82" t="s">
         <v>303</v>
-      </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="I10" s="82" t="s">
-        <v>304</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
       </c>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
       <c r="AD10" s="121">
         <v>123</v>
       </c>
       <c r="AE10" s="112" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS10">
         <f>AR9*100</f>
@@ -5536,149 +5542,149 @@
       </c>
     </row>
     <row r="11" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D11" s="162" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
+      <c r="D11" s="141" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="79">
         <v>380</v>
       </c>
       <c r="I11" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="O11" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="O11" s="82" t="s">
+      <c r="P11" s="146" t="s">
         <v>307</v>
       </c>
-      <c r="P11" s="171" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="171">
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="146">
         <v>0.65</v>
       </c>
-      <c r="U11" s="173"/>
+      <c r="U11" s="148"/>
       <c r="AD11" s="122">
         <v>123</v>
       </c>
       <c r="AE11" s="112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D12" s="162" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
+      <c r="D12" s="141" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I12" s="82" t="s">
         <v>217</v>
       </c>
       <c r="O12" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="P12" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="P12" s="170" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170">
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="142"/>
+      <c r="T12" s="142">
         <v>44.5</v>
       </c>
-      <c r="U12" s="170"/>
+      <c r="U12" s="142"/>
       <c r="AD12" s="117">
         <v>123.4</v>
       </c>
       <c r="AE12" s="112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="4:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="141" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="79" t="s">
         <v>309</v>
-      </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="79" t="s">
-        <v>310</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="170" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170">
+      <c r="P13" s="142" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="142">
         <v>44.5</v>
       </c>
-      <c r="U13" s="170"/>
+      <c r="U13" s="142"/>
       <c r="AC13" s="52"/>
       <c r="AD13" s="118">
         <v>123.4</v>
       </c>
       <c r="AE13" s="112" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D14" s="162" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
+      <c r="D14" s="141" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="80" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="170" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170">
+      <c r="P14" s="142" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142">
         <v>44.5</v>
       </c>
-      <c r="U14" s="170"/>
+      <c r="U14" s="142"/>
     </row>
     <row r="15" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D15" s="162" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
+      <c r="D15" s="141" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="79">
         <v>77</v>
       </c>
       <c r="O15" s="102"/>
-      <c r="P15" s="176" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="176"/>
-      <c r="T15" s="176" t="e">
+      <c r="P15" s="143" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143" t="e">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="176"/>
+      <c r="U15" s="143"/>
     </row>
-    <row r="18" spans="3:149" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:150" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>95</v>
       </c>
@@ -5700,7 +5706,7 @@
       <c r="BV18" s="1"/>
       <c r="BY18" s="1"/>
     </row>
-    <row r="20" spans="3:149" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:150" x14ac:dyDescent="0.25">
       <c r="CN20" s="77" t="s">
         <v>269</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="3:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:150" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BV21" s="11"/>
       <c r="BW21" s="11"/>
       <c r="BX21" s="96"/>
@@ -5728,8 +5734,8 @@
       <c r="CC21" s="11"/>
       <c r="CD21" s="79"/>
       <c r="CE21" s="79"/>
-      <c r="CF21" s="174"/>
-      <c r="CG21" s="175"/>
+      <c r="CF21" s="139"/>
+      <c r="CG21" s="140"/>
       <c r="CH21" s="99"/>
       <c r="CI21" s="99"/>
       <c r="CJ21" s="99"/>
@@ -5739,7 +5745,7 @@
         <v>59</v>
       </c>
       <c r="CN21" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="CO21" s="1">
         <v>0</v>
@@ -5757,116 +5763,116 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:149" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="156" t="s">
+    <row r="22" spans="3:150" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="160" t="s">
+      <c r="E22" s="158" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="140" t="s">
+      <c r="F22" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="G22" s="160" t="s">
+      <c r="G22" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="140" t="s">
+      <c r="I22" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="J22" s="142" t="s">
-        <v>323</v>
-      </c>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143" t="s">
-        <v>328</v>
-      </c>
-      <c r="O22" s="158" t="s">
+      <c r="J22" s="163" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="164" t="s">
+        <v>327</v>
+      </c>
+      <c r="O22" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="159"/>
-      <c r="S22" s="159"/>
-      <c r="T22" s="159"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="159"/>
-      <c r="X22" s="159"/>
-      <c r="Y22" s="159"/>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="147" t="s">
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="157"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="148"/>
-      <c r="AG22" s="148"/>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="149"/>
-      <c r="AJ22" s="150" t="s">
+      <c r="AB22" s="169"/>
+      <c r="AC22" s="169"/>
+      <c r="AD22" s="169"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="169"/>
+      <c r="AH22" s="169"/>
+      <c r="AI22" s="170"/>
+      <c r="AJ22" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="151"/>
-      <c r="AM22" s="151"/>
-      <c r="AN22" s="151"/>
-      <c r="AO22" s="151"/>
-      <c r="AP22" s="151"/>
-      <c r="AQ22" s="151"/>
-      <c r="AR22" s="151"/>
-      <c r="AS22" s="151"/>
-      <c r="AT22" s="151"/>
-      <c r="AU22" s="151"/>
-      <c r="AV22" s="151"/>
-      <c r="AW22" s="152"/>
-      <c r="AX22" s="147" t="s">
+      <c r="AK22" s="172"/>
+      <c r="AL22" s="172"/>
+      <c r="AM22" s="172"/>
+      <c r="AN22" s="172"/>
+      <c r="AO22" s="172"/>
+      <c r="AP22" s="172"/>
+      <c r="AQ22" s="172"/>
+      <c r="AR22" s="172"/>
+      <c r="AS22" s="172"/>
+      <c r="AT22" s="172"/>
+      <c r="AU22" s="172"/>
+      <c r="AV22" s="172"/>
+      <c r="AW22" s="173"/>
+      <c r="AX22" s="168" t="s">
         <v>218</v>
       </c>
-      <c r="AY22" s="148"/>
-      <c r="AZ22" s="148"/>
-      <c r="BA22" s="148"/>
-      <c r="BB22" s="148"/>
-      <c r="BC22" s="148"/>
-      <c r="BD22" s="148"/>
-      <c r="BE22" s="148"/>
-      <c r="BF22" s="148"/>
-      <c r="BG22" s="148"/>
-      <c r="BH22" s="148"/>
-      <c r="BI22" s="148"/>
-      <c r="BJ22" s="148"/>
-      <c r="BK22" s="148"/>
-      <c r="BL22" s="148"/>
-      <c r="BM22" s="148"/>
-      <c r="BN22" s="149"/>
-      <c r="BO22" s="153" t="s">
+      <c r="AY22" s="169"/>
+      <c r="AZ22" s="169"/>
+      <c r="BA22" s="169"/>
+      <c r="BB22" s="169"/>
+      <c r="BC22" s="169"/>
+      <c r="BD22" s="169"/>
+      <c r="BE22" s="169"/>
+      <c r="BF22" s="169"/>
+      <c r="BG22" s="169"/>
+      <c r="BH22" s="169"/>
+      <c r="BI22" s="169"/>
+      <c r="BJ22" s="169"/>
+      <c r="BK22" s="169"/>
+      <c r="BL22" s="169"/>
+      <c r="BM22" s="169"/>
+      <c r="BN22" s="170"/>
+      <c r="BO22" s="174" t="s">
         <v>226</v>
       </c>
-      <c r="BP22" s="154"/>
-      <c r="BQ22" s="154"/>
-      <c r="BR22" s="154"/>
-      <c r="BS22" s="154"/>
-      <c r="BT22" s="154"/>
-      <c r="BU22" s="155"/>
-      <c r="BV22" s="145" t="s">
+      <c r="BP22" s="175"/>
+      <c r="BQ22" s="175"/>
+      <c r="BR22" s="175"/>
+      <c r="BS22" s="175"/>
+      <c r="BT22" s="175"/>
+      <c r="BU22" s="176"/>
+      <c r="BV22" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="BW22" s="146"/>
-      <c r="BX22" s="146"/>
-      <c r="BY22" s="146"/>
-      <c r="BZ22" s="146"/>
-      <c r="CA22" s="146"/>
-      <c r="CB22" s="146"/>
-      <c r="CC22" s="146"/>
-      <c r="CD22" s="146"/>
-      <c r="CE22" s="146"/>
-      <c r="CF22" s="146"/>
-      <c r="CG22" s="146"/>
+      <c r="BW22" s="167"/>
+      <c r="BX22" s="167"/>
+      <c r="BY22" s="167"/>
+      <c r="BZ22" s="167"/>
+      <c r="CA22" s="167"/>
+      <c r="CB22" s="167"/>
+      <c r="CC22" s="167"/>
+      <c r="CD22" s="167"/>
+      <c r="CE22" s="167"/>
+      <c r="CF22" s="167"/>
+      <c r="CG22" s="167"/>
       <c r="CH22" s="89"/>
       <c r="CI22" s="91"/>
       <c r="CJ22" s="95"/>
@@ -5876,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="CN22" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CO22" s="1">
         <v>60</v>
@@ -5891,49 +5897,49 @@
         <v>1</v>
       </c>
       <c r="CS22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="CT22" t="str">
         <f>H5</f>
         <v>NMO_Name</v>
       </c>
       <c r="CU22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="CV22" t="str">
         <f>H6</f>
         <v>ЩРН-12</v>
       </c>
       <c r="CW22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="CX22" t="e">
         <f ca="1">"Установленная полная мощность, Ру = "&amp;T5&amp;"кВт"</f>
         <v>#VALUE!</v>
       </c>
       <c r="CY22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CZ22" t="str">
         <f>"Коэффициент спроса, Кс = "&amp;T11</f>
         <v>Коэффициент спроса, Кс = 0,65</v>
       </c>
       <c r="DA22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="DB22" t="e">
         <f ca="1">"Расчетная мощность, Рр = "&amp;T6</f>
         <v>#VALUE!</v>
       </c>
       <c r="DC22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DD22" t="str">
         <f>"Коэффициент мощности, cosf = "&amp;T8</f>
         <v>Коэффициент мощности, cosf = 0,92</v>
       </c>
       <c r="DE22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="DF22" t="e">
         <f ca="1">"Расчетный ток, Iр = "&amp;T15&amp;"А"</f>
@@ -5943,23 +5949,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="3:149" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="157"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
+    <row r="23" spans="3:150" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="155"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
       <c r="J23" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="L23" s="85" t="s">
         <v>325</v>
       </c>
-      <c r="L23" s="85" t="s">
-        <v>326</v>
-      </c>
-      <c r="M23" s="144"/>
+      <c r="M23" s="165"/>
       <c r="O23" s="56" t="s">
         <v>121</v>
       </c>
@@ -6072,31 +6078,31 @@
         <v>187</v>
       </c>
       <c r="AZ23" s="107" t="s">
+        <v>374</v>
+      </c>
+      <c r="BA23" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="BB23" s="107" t="s">
         <v>375</v>
-      </c>
-      <c r="BA23" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="BB23" s="107" t="s">
-        <v>376</v>
       </c>
       <c r="BC23" s="108" t="s">
         <v>181</v>
       </c>
       <c r="BD23" s="73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BE23" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="BF23" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="BG23" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BH23" s="63" t="s">
         <v>392</v>
-      </c>
-      <c r="BF23" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="BG23" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="BH23" s="63" t="s">
-        <v>393</v>
       </c>
       <c r="BI23" s="73" t="s">
         <v>180</v>
@@ -6137,18 +6143,18 @@
       <c r="BU23" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="BV23" s="145"/>
-      <c r="BW23" s="146"/>
-      <c r="BX23" s="146"/>
-      <c r="BY23" s="146"/>
-      <c r="BZ23" s="146"/>
-      <c r="CA23" s="146"/>
-      <c r="CB23" s="146"/>
-      <c r="CC23" s="146"/>
-      <c r="CD23" s="146"/>
-      <c r="CE23" s="146"/>
-      <c r="CF23" s="146"/>
-      <c r="CG23" s="146"/>
+      <c r="BV23" s="166"/>
+      <c r="BW23" s="167"/>
+      <c r="BX23" s="167"/>
+      <c r="BY23" s="167"/>
+      <c r="BZ23" s="167"/>
+      <c r="CA23" s="167"/>
+      <c r="CB23" s="167"/>
+      <c r="CC23" s="167"/>
+      <c r="CD23" s="167"/>
+      <c r="CE23" s="167"/>
+      <c r="CF23" s="167"/>
+      <c r="CG23" s="167"/>
       <c r="CH23" s="89"/>
       <c r="CI23" s="91"/>
       <c r="CJ23" s="95"/>
@@ -6157,32 +6163,32 @@
       <c r="CO23" s="1">
         <v>35</v>
       </c>
-      <c r="EB23" s="139" t="s">
-        <v>359</v>
-      </c>
-      <c r="EC23" s="139"/>
-      <c r="ED23" s="139"/>
-      <c r="EE23" s="139"/>
-      <c r="EF23" s="139"/>
-      <c r="EG23" s="139"/>
-      <c r="EH23" s="139"/>
-      <c r="EI23" s="139"/>
-      <c r="EJ23" s="139"/>
-      <c r="EK23" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="EL23" s="139"/>
-      <c r="EM23" s="139"/>
-      <c r="EN23" s="139"/>
-      <c r="EO23" s="139"/>
-      <c r="EP23" s="139"/>
-      <c r="EQ23" s="139"/>
-      <c r="ER23" s="139"/>
-      <c r="ES23" s="139"/>
+      <c r="EB23" s="162" t="s">
+        <v>358</v>
+      </c>
+      <c r="EC23" s="162"/>
+      <c r="ED23" s="162"/>
+      <c r="EE23" s="162"/>
+      <c r="EF23" s="162"/>
+      <c r="EG23" s="162"/>
+      <c r="EH23" s="162"/>
+      <c r="EI23" s="162"/>
+      <c r="EJ23" s="162"/>
+      <c r="EK23" s="162" t="s">
+        <v>362</v>
+      </c>
+      <c r="EL23" s="162"/>
+      <c r="EM23" s="162"/>
+      <c r="EN23" s="162"/>
+      <c r="EO23" s="162"/>
+      <c r="EP23" s="162"/>
+      <c r="EQ23" s="162"/>
+      <c r="ER23" s="162"/>
+      <c r="ES23" s="162"/>
     </row>
-    <row r="24" spans="3:149" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:150" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>279</v>
+        <v>399</v>
       </c>
       <c r="D24" s="64" t="str">
         <f>IF('&lt;zlight&gt;DEVEXPORT'!P11=1,'&lt;zlight&gt;DEVEXPORT'!F11,"")</f>
@@ -6518,7 +6524,7 @@
         <v>59</v>
       </c>
       <c r="CN24" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="CO24" s="1" t="e">
         <f>CL24</f>
@@ -6534,110 +6540,110 @@
         <v>1</v>
       </c>
       <c r="CS24" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CT24" s="1" t="e">
         <f ca="1">IF(Q24="ABC","BOOLEAN_1","BOOLEAN_0")</f>
         <v>#N/A</v>
       </c>
       <c r="CU24" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="CV24" s="1" t="e">
         <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(CB24=0,IF(CC24=0,"INTEGER_3","INTEGER_"&amp;CC24),"INTEGER_"&amp;CC24))</f>
         <v>#VALUE!</v>
       </c>
       <c r="CW24" s="92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="CX24" s="1" t="str">
         <f t="shared" ref="CX24" ca="1" si="0">IFERROR(_xlfn.IFS(CV24="INTEGER_0","INTEGER_0",CV24="INTEGER_1","INTEGER_0",IF(CD24=1,IF(CK24=1,1,0),0),"INTEGER_1",IF(BY24=1,IF(CD24=1,1,0),0),"INTEGER_2",IF(BY24=0,IF(CD24=1,1,0),0),"INTEGER_0",IF(CD24=1,IF(CK24=2,IF(BZ24=0,IF(CI24=0,1,0),0),0),0),"INTEGER_2",IF(CD24=1,IF(CK24=2,IF(BZ24=0,IF(CI24&lt;&gt;0,1,0),0),0),0),"INTEGER_4",IF(CD24=1,IF(CK24=2,IF(BZ24&lt;&gt;0,1,0),0),0),"INTEGER_3",IF(CD24=0,IF(BY24=1,IF(CJ24=1,1,0),0),0),"INTEGER_5"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CY24" s="92" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="CZ24" s="1" t="str">
         <f t="shared" ref="CZ24" si="1">"INTEGER_0"</f>
         <v>INTEGER_0</v>
       </c>
       <c r="DA24" s="92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="DB24" s="1" t="str">
         <f t="shared" ref="DB24" ca="1" si="2">IFERROR(_xlfn.IFS(CV24="INTEGER_0","INTEGER_4",CV24="INTEGER_1","INTEGER_4",IF(BY24=1,IF(CD24=1,1,0),0),"INTEGER_2",CX24="INTEGER_5","INTEGER_3"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="DC24" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DD24" s="1" t="str">
         <f ca="1">IFERROR(_xlfn.IFS(BY24=1,"INTEGER_0",I24&lt;&gt;"","INTEGER_0",H24&lt;&gt;"","INTEGER_0",IF(CD24=1,1,0),"INTEGER_0",IF(BY24=0,IF(CD24=0,IF(AJ24="",1,0),0),0),"INTEGER_3",IF(BY24=0,IF(CD24=0,IF(AJ24=INDEX($AJ$24:AJ24,BX24-1),1,0),0),0),"INTEGER_3"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="DE24" s="92" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="DF24" s="1" t="str">
         <f t="shared" ref="DF24" si="3">IF(CE24=0,"INTEGER_0","INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="DG24" s="92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="DH24" s="1" t="str">
         <f ca="1">IFERROR(_xlfn.IFS(IF(BY24=1,1,0),"INTEGER_0",I24&lt;&gt;"","INTEGER_5",H24&lt;&gt;"","INTEGER_5",DD24="INTEGER_3","INTEGER_3",IF(CD24=1,IF(BY24=0,1,0),0),"INTEGER_5",IF(AJ24=INDEX($AJ$24:AJ24,BX24-1),1,0),"INTEGER_5"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="DI24" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DJ24" s="1" t="str">
         <f>IF(W24&gt;1,O24&amp;"("&amp;W24&amp;"шт.)",O24)</f>
         <v>NMO_BaseName</v>
       </c>
       <c r="DK24" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DL24" s="1" t="e">
         <f ca="1">R24</f>
         <v>#VALUE!</v>
       </c>
       <c r="DM24" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DN24" s="1" t="e">
         <f ca="1">T24</f>
         <v>#VALUE!</v>
       </c>
       <c r="DO24" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DP24" s="1" t="e">
         <f ca="1">Z24&amp;"\P~"&amp;P24&amp;"V"</f>
         <v>#N/A</v>
       </c>
       <c r="DQ24" s="103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DR24" s="103" t="str">
         <f>AJ24</f>
         <v>SLCABAGEN1_HeadDeviceName.SLCABAGEN1_NGHeadDevice</v>
       </c>
       <c r="DS24" s="103" t="s">
+        <v>353</v>
+      </c>
+      <c r="DT24" s="103" t="s">
         <v>354</v>
       </c>
-      <c r="DT24" s="103" t="s">
+      <c r="DU24" s="103" t="s">
         <v>355</v>
       </c>
-      <c r="DU24" s="103" t="s">
+      <c r="DV24" s="103" t="s">
+        <v>354</v>
+      </c>
+      <c r="DW24" s="103" t="s">
         <v>356</v>
-      </c>
-      <c r="DV24" s="103" t="s">
-        <v>355</v>
-      </c>
-      <c r="DW24" s="103" t="s">
-        <v>357</v>
       </c>
       <c r="DX24" s="103" t="e">
         <f ca="1">AK24</f>
@@ -6677,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="EH24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="EI24" s="1" t="e">
         <f ca="1">BL24&amp;"\P"&amp;BM24&amp;"\P"&amp;BN24</f>
@@ -6710,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="EQ24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="ER24" s="1" t="e">
         <f ca="1">BS24&amp;"\P"&amp;BT24&amp;"\P"&amp;BU24</f>
@@ -6720,9 +6726,51 @@
         <f ca="1">IF(EK24="","","&lt;/zinsertblock&gt;")</f>
         <v>#VALUE!</v>
       </c>
+      <c r="ET24" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="EB23:EJ23"/>
+    <mergeCell ref="EK23:ES23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="BV22:CG23"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="BO22:BU22"/>
+    <mergeCell ref="AX22:BN22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
     <mergeCell ref="CF21:CG21"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="P14:S14"/>
@@ -6734,45 +6782,6 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="T15:U15"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="O22:Z22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="EB23:EJ23"/>
-    <mergeCell ref="EK23:ES23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="BV22:CG23"/>
-    <mergeCell ref="AA22:AI22"/>
-    <mergeCell ref="AJ22:AW22"/>
-    <mergeCell ref="BO22:BU22"/>
-    <mergeCell ref="AX22:BN22"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
     <cfRule type="expression" dxfId="102" priority="332">
@@ -7174,10 +7183,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772FECD8-F93D-41DA-984E-EC1C5AEE2748}">
   <sheetPr codeName="Лист14"/>
-  <dimension ref="B5:W11"/>
+  <dimension ref="A5:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7196,7 +7205,7 @@
     <col min="22" max="22" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>95</v>
       </c>
@@ -7222,7 +7231,107 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>COLUMN()-1</f>
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:V7" si="0">COLUMN()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>ROW()-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ref="A9:A23" si="1">ROW()-1</f>
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>79</v>
       </c>
@@ -7263,7 +7372,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>16</v>
@@ -7275,16 +7384,20 @@
         <v>18</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -7295,7 +7408,11 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -7306,13 +7423,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>277</v>
@@ -7364,10 +7481,82 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W11" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7477,7 +7666,7 @@
   <sheetPr codeName="Лист16"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -7488,17 +7677,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7511,8 +7700,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="B3:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7620,7 +7809,7 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -7705,7 +7894,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -7854,13 +8043,13 @@
         <v>261</v>
       </c>
       <c r="R4" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="S4" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="T4" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="T4" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="U4" s="53" t="s">
         <v>195</v>
@@ -7884,13 +8073,13 @@
         <v>262</v>
       </c>
       <c r="AB4" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC4" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="AC4" s="53" t="s">
+      <c r="AD4" s="53" t="s">
         <v>370</v>
-      </c>
-      <c r="AD4" s="53" t="s">
-        <v>371</v>
       </c>
       <c r="AE4" s="53" t="s">
         <v>198</v>
@@ -7914,13 +8103,13 @@
         <v>263</v>
       </c>
       <c r="AL4" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM4" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AN4" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="AN4" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="AO4" s="53" t="s">
         <v>201</v>
@@ -8339,7 +8528,7 @@
         <v>2</v>
       </c>
       <c r="R6" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S6" s="104">
         <v>12.5</v>
@@ -8367,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="AB6" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC6" s="105">
         <v>12.5</v>
@@ -8397,7 +8586,7 @@
         <v>3</v>
       </c>
       <c r="AL6" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM6" s="105">
         <v>12.5</v>
@@ -8530,7 +8719,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S7" s="104">
         <v>12.5</v>
@@ -8558,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="AB7" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC7" s="105">
         <v>12.5</v>
@@ -8588,7 +8777,7 @@
         <v>3</v>
       </c>
       <c r="AL7" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM7" s="105">
         <v>12.5</v>
@@ -8722,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="R8" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S8" s="104">
         <v>12.5</v>
@@ -8750,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="AB8" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC8" s="105">
         <v>12.5</v>
@@ -8780,7 +8969,7 @@
         <v>3</v>
       </c>
       <c r="AL8" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM8" s="105">
         <v>12.5</v>
@@ -8912,7 +9101,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S9" s="104">
         <v>12.5</v>
@@ -8940,7 +9129,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC9" s="105">
         <v>12.5</v>
@@ -8970,7 +9159,7 @@
         <v>3</v>
       </c>
       <c r="AL9" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM9" s="105">
         <v>12.5</v>
@@ -9104,7 +9293,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S10" s="104">
         <v>12.5</v>
@@ -9132,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC10" s="105">
         <v>12.5</v>
@@ -9162,7 +9351,7 @@
         <v>3</v>
       </c>
       <c r="AL10" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM10" s="105">
         <v>12.5</v>
@@ -9296,7 +9485,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S11" s="104">
         <v>12.5</v>
@@ -9324,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="AB11" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC11" s="105">
         <v>12.5</v>
@@ -9354,7 +9543,7 @@
         <v>3</v>
       </c>
       <c r="AL11" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM11" s="105">
         <v>12.5</v>
@@ -9486,7 +9675,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S12" s="104">
         <v>12.5</v>
@@ -9514,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="AB12" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC12" s="105">
         <v>12.5</v>
@@ -9544,7 +9733,7 @@
         <v>3</v>
       </c>
       <c r="AL12" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM12" s="105">
         <v>12.5</v>
@@ -9676,7 +9865,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S13" s="104">
         <v>12.5</v>
@@ -9698,7 +9887,7 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC13" s="105">
         <v>12.5</v>
@@ -9728,7 +9917,7 @@
         <v>3</v>
       </c>
       <c r="AL13" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM13" s="105">
         <v>12.5</v>
@@ -9850,7 +10039,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S14" s="104">
         <v>12.5</v>
@@ -9872,7 +10061,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC14" s="105">
         <v>12.5</v>
@@ -9902,7 +10091,7 @@
         <v>3</v>
       </c>
       <c r="AL14" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM14" s="105">
         <v>12.5</v>
@@ -10018,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S15" s="104">
         <v>12.5</v>
@@ -10040,7 +10229,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC15" s="105">
         <v>12.5</v>
@@ -10070,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="AL15" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM15" s="105">
         <v>12.5</v>
@@ -10186,7 +10375,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S16" s="104">
         <v>12.5</v>
@@ -10208,7 +10397,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC16" s="105">
         <v>12.5</v>
@@ -10236,7 +10425,7 @@
       </c>
       <c r="AK16" s="10"/>
       <c r="AL16" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM16" s="105">
         <v>12.5</v>
@@ -10352,7 +10541,7 @@
         <v>2</v>
       </c>
       <c r="R17" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S17" s="104">
         <v>12.5</v>
@@ -10374,7 +10563,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC17" s="105">
         <v>12.5</v>
@@ -10402,7 +10591,7 @@
       </c>
       <c r="AK17" s="10"/>
       <c r="AL17" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM17" s="105">
         <v>12.5</v>
@@ -10518,7 +10707,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S18" s="104">
         <v>12.5</v>
@@ -10540,7 +10729,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC18" s="105">
         <v>12.5</v>
@@ -10568,7 +10757,7 @@
       </c>
       <c r="AK18" s="10"/>
       <c r="AL18" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM18" s="105">
         <v>12.5</v>
@@ -10684,7 +10873,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S19" s="104">
         <v>12.5</v>
@@ -10706,7 +10895,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC19" s="105">
         <v>12.5</v>
@@ -10734,7 +10923,7 @@
       </c>
       <c r="AK19" s="10"/>
       <c r="AL19" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM19" s="105">
         <v>12.5</v>
@@ -10850,7 +11039,7 @@
         <v>2</v>
       </c>
       <c r="R20" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S20" s="104">
         <v>12.5</v>
@@ -10872,7 +11061,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC20" s="105">
         <v>12.5</v>
@@ -10900,7 +11089,7 @@
       </c>
       <c r="AK20" s="10"/>
       <c r="AL20" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM20" s="105">
         <v>12.5</v>
@@ -11016,7 +11205,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S21" s="104">
         <v>12.5</v>
@@ -11038,7 +11227,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC21" s="105">
         <v>12.5</v>
@@ -11066,7 +11255,7 @@
       </c>
       <c r="AK21" s="10"/>
       <c r="AL21" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM21" s="105">
         <v>12.5</v>
@@ -11182,7 +11371,7 @@
         <v>2</v>
       </c>
       <c r="R22" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S22" s="104">
         <v>12.5</v>
@@ -11204,7 +11393,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC22" s="105">
         <v>12.5</v>
@@ -11232,7 +11421,7 @@
       </c>
       <c r="AK22" s="10"/>
       <c r="AL22" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM22" s="105">
         <v>12.5</v>
@@ -11344,7 +11533,7 @@
         <v>2</v>
       </c>
       <c r="R23" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S23" s="104">
         <v>12.5</v>
@@ -11366,7 +11555,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC23" s="105">
         <v>12.5</v>
@@ -11394,7 +11583,7 @@
       </c>
       <c r="AK23" s="10"/>
       <c r="AL23" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM23" s="105">
         <v>12.5</v>
@@ -11508,7 +11697,7 @@
         <v>2</v>
       </c>
       <c r="R24" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S24" s="104">
         <v>12.5</v>
@@ -11530,7 +11719,7 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC24" s="105">
         <v>12.5</v>
@@ -11558,7 +11747,7 @@
       </c>
       <c r="AK24" s="10"/>
       <c r="AL24" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM24" s="105">
         <v>12.5</v>
@@ -11672,7 +11861,7 @@
         <v>2</v>
       </c>
       <c r="R25" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S25" s="104">
         <v>12.5</v>
@@ -11694,7 +11883,7 @@
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC25" s="105">
         <v>12.5</v>
@@ -11722,7 +11911,7 @@
       </c>
       <c r="AK25" s="10"/>
       <c r="AL25" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM25" s="105">
         <v>12.5</v>
@@ -11836,7 +12025,7 @@
         <v>2</v>
       </c>
       <c r="R26" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S26" s="104">
         <v>12.5</v>
@@ -11858,7 +12047,7 @@
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC26" s="105">
         <v>12.5</v>
@@ -11886,7 +12075,7 @@
       </c>
       <c r="AK26" s="10"/>
       <c r="AL26" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM26" s="105">
         <v>12.5</v>
@@ -12000,7 +12189,7 @@
         <v>2</v>
       </c>
       <c r="R27" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S27" s="104">
         <v>12.5</v>
@@ -12022,7 +12211,7 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC27" s="105">
         <v>12.5</v>
@@ -12050,7 +12239,7 @@
       </c>
       <c r="AK27" s="10"/>
       <c r="AL27" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM27" s="105">
         <v>12.5</v>
@@ -12164,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="R28" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S28" s="104">
         <v>12.5</v>
@@ -12186,7 +12375,7 @@
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC28" s="105">
         <v>12.5</v>
@@ -12214,7 +12403,7 @@
       </c>
       <c r="AK28" s="10"/>
       <c r="AL28" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM28" s="105">
         <v>12.5</v>
@@ -12328,7 +12517,7 @@
         <v>2</v>
       </c>
       <c r="R29" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S29" s="104">
         <v>12.5</v>
@@ -12350,7 +12539,7 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC29" s="105">
         <v>12.5</v>
@@ -12378,7 +12567,7 @@
       </c>
       <c r="AK29" s="10"/>
       <c r="AL29" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM29" s="105">
         <v>12.5</v>
@@ -12492,7 +12681,7 @@
         <v>2</v>
       </c>
       <c r="R30" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S30" s="104">
         <v>12.5</v>
@@ -12514,7 +12703,7 @@
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC30" s="105">
         <v>12.5</v>
@@ -12542,7 +12731,7 @@
       </c>
       <c r="AK30" s="10"/>
       <c r="AL30" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM30" s="105">
         <v>12.5</v>
@@ -12656,7 +12845,7 @@
         <v>2</v>
       </c>
       <c r="R31" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S31" s="104">
         <v>12.5</v>
@@ -12678,7 +12867,7 @@
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC31" s="105">
         <v>12.5</v>
@@ -12706,7 +12895,7 @@
       </c>
       <c r="AK31" s="10"/>
       <c r="AL31" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM31" s="105">
         <v>12.5</v>
@@ -12820,7 +13009,7 @@
         <v>2</v>
       </c>
       <c r="R32" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S32" s="104">
         <v>12.5</v>
@@ -12842,7 +13031,7 @@
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC32" s="105">
         <v>12.5</v>
@@ -12870,7 +13059,7 @@
       </c>
       <c r="AK32" s="10"/>
       <c r="AL32" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM32" s="105">
         <v>12.5</v>
@@ -12984,7 +13173,7 @@
         <v>2</v>
       </c>
       <c r="R33" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S33" s="104">
         <v>12.5</v>
@@ -13006,7 +13195,7 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC33" s="105">
         <v>12.5</v>
@@ -13034,7 +13223,7 @@
       </c>
       <c r="AK33" s="10"/>
       <c r="AL33" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM33" s="105">
         <v>12.5</v>
@@ -13148,7 +13337,7 @@
         <v>2</v>
       </c>
       <c r="R34" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S34" s="104">
         <v>12.5</v>
@@ -13170,7 +13359,7 @@
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC34" s="105">
         <v>12.5</v>
@@ -13198,7 +13387,7 @@
       </c>
       <c r="AK34" s="10"/>
       <c r="AL34" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM34" s="105">
         <v>12.5</v>
@@ -13312,7 +13501,7 @@
         <v>2</v>
       </c>
       <c r="R35" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S35" s="104">
         <v>12.5</v>
@@ -13334,7 +13523,7 @@
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC35" s="105">
         <v>12.5</v>
@@ -13362,7 +13551,7 @@
       </c>
       <c r="AK35" s="10"/>
       <c r="AL35" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM35" s="105">
         <v>12.5</v>
@@ -13476,7 +13665,7 @@
         <v>2</v>
       </c>
       <c r="R36" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S36" s="104">
         <v>12.5</v>
@@ -13498,7 +13687,7 @@
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC36" s="105">
         <v>12.5</v>
@@ -13526,7 +13715,7 @@
       </c>
       <c r="AK36" s="10"/>
       <c r="AL36" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM36" s="105">
         <v>12.5</v>
@@ -13631,7 +13820,7 @@
         <v>2</v>
       </c>
       <c r="R37" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S37" s="104">
         <v>12.5</v>
@@ -13653,7 +13842,7 @@
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC37" s="105">
         <v>12.5</v>
@@ -13681,7 +13870,7 @@
       </c>
       <c r="AK37" s="10"/>
       <c r="AL37" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM37" s="105">
         <v>12.5</v>

--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO5.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\cad\preload\xlsxtemplates\modelinxlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F542173-3F40-4C80-BCFF-E9F228AB5DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF822A-DA06-47ED-A405-997D0062426A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="37635" windowHeight="13425" tabRatio="676" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="15375" yWindow="2685" windowWidth="25725" windowHeight="15630" tabRatio="676" firstSheet="6" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -3524,50 +3524,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3591,72 +3613,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5237,8 +5237,8 @@
   <sheetPr codeName="Лист13"/>
   <dimension ref="C1:ET24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,25 +5314,25 @@
       </c>
     </row>
     <row r="4" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="168" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
       <c r="I4" s="84" t="s">
         <v>281</v>
       </c>
       <c r="O4" s="84"/>
-      <c r="P4" s="149" t="s">
+      <c r="P4" s="168" t="s">
         <v>282</v>
       </c>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
       <c r="AD4" s="113">
         <v>1234</v>
       </c>
@@ -5341,12 +5341,12 @@
       </c>
     </row>
     <row r="5" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="78" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
@@ -5357,17 +5357,17 @@
       <c r="O5" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="P5" s="150" t="s">
+      <c r="P5" s="163" t="s">
         <v>286</v>
       </c>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150" t="e">
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163" t="e">
         <f ca="1">SUM($AC$24:$AC$12000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="150"/>
+      <c r="U5" s="163"/>
       <c r="AD5" s="114">
         <v>1234</v>
       </c>
@@ -5376,12 +5376,12 @@
       </c>
     </row>
     <row r="6" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="162" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
       <c r="H6" s="79" t="s">
         <v>288</v>
       </c>
@@ -5391,17 +5391,17 @@
       <c r="O6" s="82">
         <v>63</v>
       </c>
-      <c r="P6" s="150" t="s">
+      <c r="P6" s="163" t="s">
         <v>290</v>
       </c>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150" t="e">
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163" t="e">
         <f ca="1">T5*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="150"/>
+      <c r="U6" s="163"/>
       <c r="AD6" s="115">
         <v>380</v>
       </c>
@@ -5410,12 +5410,12 @@
       </c>
     </row>
     <row r="7" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="162" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="79">
         <v>45399</v>
       </c>
@@ -5425,17 +5425,17 @@
       <c r="O7" s="82">
         <v>32</v>
       </c>
-      <c r="P7" s="150" t="s">
+      <c r="P7" s="163" t="s">
         <v>293</v>
       </c>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150" t="e">
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163" t="e">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U7" s="150"/>
+      <c r="U7" s="163"/>
       <c r="AD7" s="116">
         <v>123.4</v>
       </c>
@@ -5444,12 +5444,12 @@
       </c>
     </row>
     <row r="8" spans="4:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="162" t="s">
         <v>294</v>
       </c>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="79" t="s">
         <v>295</v>
       </c>
@@ -5459,16 +5459,16 @@
       <c r="O8" s="82">
         <v>6</v>
       </c>
-      <c r="P8" s="151" t="s">
+      <c r="P8" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="145">
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="164">
         <v>0.92</v>
       </c>
-      <c r="U8" s="145"/>
+      <c r="U8" s="164"/>
       <c r="AD8" s="120">
         <v>123</v>
       </c>
@@ -5477,12 +5477,12 @@
       </c>
     </row>
     <row r="9" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="162" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="79" t="s">
         <v>299</v>
       </c>
@@ -5492,14 +5492,14 @@
       <c r="O9" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="P9" s="144" t="s">
+      <c r="P9" s="169" t="s">
         <v>297</v>
       </c>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
       <c r="AD9" s="119">
         <v>123</v>
       </c>
@@ -5512,24 +5512,24 @@
       </c>
     </row>
     <row r="10" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D10" s="141" t="s">
+      <c r="D10" s="162" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
       <c r="I10" s="82" t="s">
         <v>303</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
       </c>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="145"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
       <c r="AD10" s="121">
         <v>123</v>
       </c>
@@ -5542,12 +5542,12 @@
       </c>
     </row>
     <row r="11" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="162" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
       <c r="H11" s="79">
         <v>380</v>
       </c>
@@ -5557,16 +5557,16 @@
       <c r="O11" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="P11" s="146" t="s">
+      <c r="P11" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="146">
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="171">
         <v>0.65</v>
       </c>
-      <c r="U11" s="148"/>
+      <c r="U11" s="173"/>
       <c r="AD11" s="122">
         <v>123</v>
       </c>
@@ -5575,12 +5575,12 @@
       </c>
     </row>
     <row r="12" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="79" t="s">
         <v>317</v>
       </c>
@@ -5590,16 +5590,16 @@
       <c r="O12" s="82" t="s">
         <v>310</v>
       </c>
-      <c r="P12" s="142" t="s">
+      <c r="P12" s="170" t="s">
         <v>311</v>
       </c>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="142">
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="170">
         <v>44.5</v>
       </c>
-      <c r="U12" s="142"/>
+      <c r="U12" s="170"/>
       <c r="AD12" s="117">
         <v>123.4</v>
       </c>
@@ -5608,27 +5608,27 @@
       </c>
     </row>
     <row r="13" spans="4:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="162" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
       <c r="H13" s="79" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="142" t="s">
+      <c r="P13" s="170" t="s">
         <v>313</v>
       </c>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142">
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="170">
         <v>44.5</v>
       </c>
-      <c r="U13" s="142"/>
+      <c r="U13" s="170"/>
       <c r="AC13" s="52"/>
       <c r="AD13" s="118">
         <v>123.4</v>
@@ -5638,51 +5638,51 @@
       </c>
     </row>
     <row r="14" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="162" t="s">
         <v>312</v>
       </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
       <c r="H14" s="80" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="142" t="s">
+      <c r="P14" s="170" t="s">
         <v>315</v>
       </c>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142">
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="170">
         <v>44.5</v>
       </c>
-      <c r="U14" s="142"/>
+      <c r="U14" s="170"/>
     </row>
     <row r="15" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D15" s="141" t="s">
+      <c r="D15" s="162" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
       <c r="H15" s="79">
         <v>77</v>
       </c>
       <c r="O15" s="102"/>
-      <c r="P15" s="143" t="s">
+      <c r="P15" s="176" t="s">
         <v>351</v>
       </c>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143" t="e">
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176" t="e">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="143"/>
+      <c r="U15" s="176"/>
     </row>
     <row r="18" spans="3:150" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
@@ -5734,8 +5734,8 @@
       <c r="CC21" s="11"/>
       <c r="CD21" s="79"/>
       <c r="CE21" s="79"/>
-      <c r="CF21" s="139"/>
-      <c r="CG21" s="140"/>
+      <c r="CF21" s="174"/>
+      <c r="CG21" s="175"/>
       <c r="CH21" s="99"/>
       <c r="CI21" s="99"/>
       <c r="CJ21" s="99"/>
@@ -5764,115 +5764,115 @@
       </c>
     </row>
     <row r="22" spans="3:150" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="154" t="s">
+      <c r="D22" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="158" t="s">
+      <c r="E22" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="160" t="s">
+      <c r="F22" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="G22" s="158" t="s">
+      <c r="G22" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="160" t="s">
+      <c r="H22" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="160" t="s">
+      <c r="I22" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="J22" s="163" t="s">
+      <c r="J22" s="142" t="s">
         <v>322</v>
       </c>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164" t="s">
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="143" t="s">
         <v>327</v>
       </c>
-      <c r="O22" s="156" t="s">
+      <c r="O22" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
-      <c r="Y22" s="157"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="168" t="s">
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="159"/>
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="159"/>
+      <c r="X22" s="159"/>
+      <c r="Y22" s="159"/>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="169"/>
-      <c r="AC22" s="169"/>
-      <c r="AD22" s="169"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="169"/>
-      <c r="AG22" s="169"/>
-      <c r="AH22" s="169"/>
-      <c r="AI22" s="170"/>
-      <c r="AJ22" s="171" t="s">
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="148"/>
+      <c r="AG22" s="148"/>
+      <c r="AH22" s="148"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="AK22" s="172"/>
-      <c r="AL22" s="172"/>
-      <c r="AM22" s="172"/>
-      <c r="AN22" s="172"/>
-      <c r="AO22" s="172"/>
-      <c r="AP22" s="172"/>
-      <c r="AQ22" s="172"/>
-      <c r="AR22" s="172"/>
-      <c r="AS22" s="172"/>
-      <c r="AT22" s="172"/>
-      <c r="AU22" s="172"/>
-      <c r="AV22" s="172"/>
-      <c r="AW22" s="173"/>
-      <c r="AX22" s="168" t="s">
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="151"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="151"/>
+      <c r="AS22" s="151"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="152"/>
+      <c r="AX22" s="147" t="s">
         <v>218</v>
       </c>
-      <c r="AY22" s="169"/>
-      <c r="AZ22" s="169"/>
-      <c r="BA22" s="169"/>
-      <c r="BB22" s="169"/>
-      <c r="BC22" s="169"/>
-      <c r="BD22" s="169"/>
-      <c r="BE22" s="169"/>
-      <c r="BF22" s="169"/>
-      <c r="BG22" s="169"/>
-      <c r="BH22" s="169"/>
-      <c r="BI22" s="169"/>
-      <c r="BJ22" s="169"/>
-      <c r="BK22" s="169"/>
-      <c r="BL22" s="169"/>
-      <c r="BM22" s="169"/>
-      <c r="BN22" s="170"/>
-      <c r="BO22" s="174" t="s">
+      <c r="AY22" s="148"/>
+      <c r="AZ22" s="148"/>
+      <c r="BA22" s="148"/>
+      <c r="BB22" s="148"/>
+      <c r="BC22" s="148"/>
+      <c r="BD22" s="148"/>
+      <c r="BE22" s="148"/>
+      <c r="BF22" s="148"/>
+      <c r="BG22" s="148"/>
+      <c r="BH22" s="148"/>
+      <c r="BI22" s="148"/>
+      <c r="BJ22" s="148"/>
+      <c r="BK22" s="148"/>
+      <c r="BL22" s="148"/>
+      <c r="BM22" s="148"/>
+      <c r="BN22" s="149"/>
+      <c r="BO22" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="BP22" s="175"/>
-      <c r="BQ22" s="175"/>
-      <c r="BR22" s="175"/>
-      <c r="BS22" s="175"/>
-      <c r="BT22" s="175"/>
-      <c r="BU22" s="176"/>
-      <c r="BV22" s="166" t="s">
+      <c r="BP22" s="154"/>
+      <c r="BQ22" s="154"/>
+      <c r="BR22" s="154"/>
+      <c r="BS22" s="154"/>
+      <c r="BT22" s="154"/>
+      <c r="BU22" s="155"/>
+      <c r="BV22" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="BW22" s="167"/>
-      <c r="BX22" s="167"/>
-      <c r="BY22" s="167"/>
-      <c r="BZ22" s="167"/>
-      <c r="CA22" s="167"/>
-      <c r="CB22" s="167"/>
-      <c r="CC22" s="167"/>
-      <c r="CD22" s="167"/>
-      <c r="CE22" s="167"/>
-      <c r="CF22" s="167"/>
-      <c r="CG22" s="167"/>
+      <c r="BW22" s="146"/>
+      <c r="BX22" s="146"/>
+      <c r="BY22" s="146"/>
+      <c r="BZ22" s="146"/>
+      <c r="CA22" s="146"/>
+      <c r="CB22" s="146"/>
+      <c r="CC22" s="146"/>
+      <c r="CD22" s="146"/>
+      <c r="CE22" s="146"/>
+      <c r="CF22" s="146"/>
+      <c r="CG22" s="146"/>
       <c r="CH22" s="89"/>
       <c r="CI22" s="91"/>
       <c r="CJ22" s="95"/>
@@ -5950,12 +5950,12 @@
       </c>
     </row>
     <row r="23" spans="3:150" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="155"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
       <c r="J23" s="85" t="s">
         <v>323</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="L23" s="85" t="s">
         <v>325</v>
       </c>
-      <c r="M23" s="165"/>
+      <c r="M23" s="144"/>
       <c r="O23" s="56" t="s">
         <v>121</v>
       </c>
@@ -6143,18 +6143,18 @@
       <c r="BU23" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="BV23" s="166"/>
-      <c r="BW23" s="167"/>
-      <c r="BX23" s="167"/>
-      <c r="BY23" s="167"/>
-      <c r="BZ23" s="167"/>
-      <c r="CA23" s="167"/>
-      <c r="CB23" s="167"/>
-      <c r="CC23" s="167"/>
-      <c r="CD23" s="167"/>
-      <c r="CE23" s="167"/>
-      <c r="CF23" s="167"/>
-      <c r="CG23" s="167"/>
+      <c r="BV23" s="145"/>
+      <c r="BW23" s="146"/>
+      <c r="BX23" s="146"/>
+      <c r="BY23" s="146"/>
+      <c r="BZ23" s="146"/>
+      <c r="CA23" s="146"/>
+      <c r="CB23" s="146"/>
+      <c r="CC23" s="146"/>
+      <c r="CD23" s="146"/>
+      <c r="CE23" s="146"/>
+      <c r="CF23" s="146"/>
+      <c r="CG23" s="146"/>
       <c r="CH23" s="89"/>
       <c r="CI23" s="91"/>
       <c r="CJ23" s="95"/>
@@ -6163,28 +6163,28 @@
       <c r="CO23" s="1">
         <v>35</v>
       </c>
-      <c r="EB23" s="162" t="s">
+      <c r="EB23" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="EC23" s="162"/>
-      <c r="ED23" s="162"/>
-      <c r="EE23" s="162"/>
-      <c r="EF23" s="162"/>
-      <c r="EG23" s="162"/>
-      <c r="EH23" s="162"/>
-      <c r="EI23" s="162"/>
-      <c r="EJ23" s="162"/>
-      <c r="EK23" s="162" t="s">
+      <c r="EC23" s="139"/>
+      <c r="ED23" s="139"/>
+      <c r="EE23" s="139"/>
+      <c r="EF23" s="139"/>
+      <c r="EG23" s="139"/>
+      <c r="EH23" s="139"/>
+      <c r="EI23" s="139"/>
+      <c r="EJ23" s="139"/>
+      <c r="EK23" s="139" t="s">
         <v>362</v>
       </c>
-      <c r="EL23" s="162"/>
-      <c r="EM23" s="162"/>
-      <c r="EN23" s="162"/>
-      <c r="EO23" s="162"/>
-      <c r="EP23" s="162"/>
-      <c r="EQ23" s="162"/>
-      <c r="ER23" s="162"/>
-      <c r="ES23" s="162"/>
+      <c r="EL23" s="139"/>
+      <c r="EM23" s="139"/>
+      <c r="EN23" s="139"/>
+      <c r="EO23" s="139"/>
+      <c r="EP23" s="139"/>
+      <c r="EQ23" s="139"/>
+      <c r="ER23" s="139"/>
+      <c r="ES23" s="139"/>
     </row>
     <row r="24" spans="3:150" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -6732,45 +6732,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="EB23:EJ23"/>
-    <mergeCell ref="EK23:ES23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="BV22:CG23"/>
-    <mergeCell ref="AA22:AI22"/>
-    <mergeCell ref="AJ22:AW22"/>
-    <mergeCell ref="BO22:BU22"/>
-    <mergeCell ref="AX22:BN22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="O22:Z22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D10:G10"/>
     <mergeCell ref="CF21:CG21"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="P14:S14"/>
@@ -6782,6 +6743,45 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="T15:U15"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="EB23:EJ23"/>
+    <mergeCell ref="EK23:ES23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="BV22:CG23"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="BO22:BU22"/>
+    <mergeCell ref="AX22:BN22"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
     <cfRule type="expression" dxfId="102" priority="332">
@@ -7185,8 +7185,8 @@
   <sheetPr codeName="Лист14"/>
   <dimension ref="A5:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
